--- a/Java JEE - Program schedule.xlsx
+++ b/Java JEE - Program schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYBER COMPUTERS\Desktop\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DA8CB8-6BCB-4E69-BCA1-116362A87A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CE589-A375-4574-ABEE-ED6AED2BE580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="167" firstSheet="2" activeTab="2" xr2:uid="{A4A37F0A-2D3E-4650-99DB-244008830C0F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="201">
   <si>
     <t>Day</t>
   </si>
@@ -794,6 +794,23 @@
   </si>
   <si>
     <t>Reviewing pull request and providing conmments.</t>
+  </si>
+  <si>
+    <t>Sajid : https://github.com/sramanjaneyulu2025/elemica-sajid/pull/1
+Aman:https://github.com/sramanjaneyulu2025/elemica-aman/tree/main/assign01</t>
+  </si>
+  <si>
+    <t>Aman : https://github.com/sramanjaneyulu2025/elemica-aman/pull/2
+Sajid: https://github.com/sramanjaneyulu2025/elemica-sajid/pull/2</t>
+  </si>
+  <si>
+    <t>Sajid : https://github.com/sramanjaneyulu2025/elemica-sajid/pull/3
+Aman:https://github.com/sramanjaneyulu2025/elemica-aman/pull/3</t>
+  </si>
+  <si>
+    <t>1) create sample product page using this product id, product name, product qty, product price in angular  
+2) create inventory page for inventory id, inventory name
+3) create warehouse page for ware house id, warehouse name also add additional details</t>
   </si>
 </sst>
 </file>
@@ -1267,6 +1284,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1287,9 +1307,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1758,8 +1775,8 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1783,9 +1800,9 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="16"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
@@ -2774,16 +2791,16 @@
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="44">
         <v>12</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="48" t="s">
         <v>119</v>
       </c>
       <c r="F35" s="13"/>
@@ -2804,10 +2821,10 @@
       <c r="A36" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="48"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
       <c r="J36" s="22"/>
@@ -2821,10 +2838,10 @@
       <c r="A37" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="48"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="13"/>
       <c r="G37" s="9"/>
       <c r="J37" s="4"/>
@@ -2834,10 +2851,10 @@
       <c r="A38" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="13"/>
       <c r="G38" s="9"/>
       <c r="J38" s="4"/>
@@ -3511,10 +3528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F156214-1BAC-4B9D-B5AF-8823E3370EB9}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3524,7 +3541,7 @@
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="11.90625" customWidth="1"/>
     <col min="5" max="5" width="42.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
     <col min="7" max="7" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3667,7 +3684,7 @@
       </c>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>45853</v>
       </c>
@@ -3711,7 +3728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>45855</v>
       </c>
@@ -3727,12 +3744,14 @@
       <c r="E9" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="38" t="s">
+        <v>197</v>
+      </c>
       <c r="G9" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>45856</v>
       </c>
@@ -3748,12 +3767,14 @@
       <c r="E10" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="38" t="s">
+        <v>197</v>
+      </c>
       <c r="G10" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>45859</v>
       </c>
@@ -3769,12 +3790,14 @@
       <c r="E11" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="38" t="s">
+        <v>198</v>
+      </c>
       <c r="G11" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>45860</v>
       </c>
@@ -3790,12 +3813,14 @@
       <c r="E12" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="38" t="s">
+        <v>198</v>
+      </c>
       <c r="G12" s="38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>45861</v>
       </c>
@@ -3811,12 +3836,14 @@
       <c r="E13" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="38" t="s">
+        <v>199</v>
+      </c>
       <c r="G13" s="39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>45862</v>
       </c>
@@ -3832,7 +3859,9 @@
       <c r="E14" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="38" t="s">
+        <v>199</v>
+      </c>
       <c r="G14" s="39" t="s">
         <v>182</v>
       </c>
@@ -3858,7 +3887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>45866</v>
       </c>
@@ -3874,7 +3903,9 @@
       <c r="E16" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="38" t="s">
+        <v>199</v>
+      </c>
       <c r="G16" s="38" t="s">
         <v>185</v>
       </c>
@@ -3907,17 +3938,17 @@
       <c r="B18" s="41">
         <v>17</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4003,6 +4034,27 @@
       <c r="F22" s="37"/>
       <c r="G22" s="38" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="36">
+        <v>45889</v>
+      </c>
+      <c r="B23" s="42">
+        <v>22</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Java JEE - Program schedule.xlsx
+++ b/Java JEE - Program schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYBER COMPUTERS\Desktop\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CE589-A375-4574-ABEE-ED6AED2BE580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E54C6E-8FBB-449A-B79D-C85624B3C6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="167" firstSheet="2" activeTab="2" xr2:uid="{A4A37F0A-2D3E-4650-99DB-244008830C0F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="203">
   <si>
     <t>Day</t>
   </si>
@@ -780,17 +780,7 @@
     <t>Features of HTML5 and CSS3 , Java Script</t>
   </si>
   <si>
-    <t>1.Create a Table using CSS with back ground colors and columns are PID, PNAME, PQTY, PRICE
-2.Create headers and title for Inventory and Warehouse with Product details.
-3.Create sample text forms with buttons and check boxes</t>
-  </si>
-  <si>
     <t>Spring Boot Repository to DB Connectivity</t>
-  </si>
-  <si>
-    <t>1.Create put and delete operations for user controller
-2.Create GET, POST, DELETE and PUT operations for Inventory Controller
-3.Create GET, POST, DELETE and PUR operations for Warehouse Controller</t>
   </si>
   <si>
     <t>Reviewing pull request and providing conmments.</t>
@@ -811,6 +801,22 @@
     <t>1) create sample product page using this product id, product name, product qty, product price in angular  
 2) create inventory page for inventory id, inventory name
 3) create warehouse page for ware house id, warehouse name also add additional details</t>
+  </si>
+  <si>
+    <t>1.Create a Table using CSS with back ground colors and columns are PID, PNAME, PQTY, PRICE
+2.Create headers and title for Inventory and Warehouse with Product details.
+3.Create sample text forms with buttons and check boxes - Assignment 6</t>
+  </si>
+  <si>
+    <t>1.Create put and delete operations for user controller
+2.Create GET, POST, DELETE and PUT operations for Inventory Controller
+3.Create GET, POST, DELETE and PUR operations for Warehouse Controller- Assignment 5</t>
+  </si>
+  <si>
+    <t>Assignment - 6</t>
+  </si>
+  <si>
+    <t>Adress pull request changes for Assignment 1 to Assignment 4</t>
   </si>
 </sst>
 </file>
@@ -1775,8 +1781,8 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3528,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F156214-1BAC-4B9D-B5AF-8823E3370EB9}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G25" sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3745,7 +3751,7 @@
         <v>166</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>56</v>
@@ -3768,7 +3774,7 @@
         <v>166</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>58</v>
@@ -3791,7 +3797,7 @@
         <v>176</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>60</v>
@@ -3814,7 +3820,7 @@
         <v>176</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>180</v>
@@ -3837,7 +3843,7 @@
         <v>177</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>78</v>
@@ -3860,7 +3866,7 @@
         <v>177</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>182</v>
@@ -3904,7 +3910,7 @@
         <v>177</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>185</v>
@@ -4008,11 +4014,11 @@
         <v>156</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="87" x14ac:dyDescent="0.35">
@@ -4023,17 +4029,17 @@
         <v>21</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>156</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
@@ -4050,11 +4056,53 @@
         <v>156</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="38" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+      <c r="A24" s="36">
+        <v>45890</v>
+      </c>
+      <c r="B24" s="42">
+        <v>23</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="36">
+        <v>45891</v>
+      </c>
+      <c r="B25" s="42">
+        <v>24</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
